--- a/biology/Botanique/Cyprès_de_l'Arizona/Cyprès_de_l'Arizona.xlsx
+++ b/biology/Botanique/Cyprès_de_l'Arizona/Cyprès_de_l'Arizona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Arizona</t>
+          <t>Cyprès_de_l'Arizona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus arizonica
 Le cyprès de l'Arizona (Cupressus arizonica) est une espèce de plantes de la famille des Cupressacées. C'est un arbre originaire des régions du Sud-Ouest de l'Amérique du Nord, souvent cultivé comme arbre d'ornement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Arizona</t>
+          <t>Cyprès_de_l'Arizona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des régions du Sud-Ouest de l'Amérique du Nord :
 aux États-Unis, l'Arizona, le Sud-Ouest du Nouveau-Mexique, le Sud de la Californie et les monts Chisos dans l'Ouest du Texas,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Arizona</t>
+          <t>Cyprès_de_l'Arizona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès de l'Arizona est un arbre toujours vert, de taille moyenne, dont la silhouette est conique plus ou moins ovoïde.
 Il peut atteindre une hauteur de 10 à 25 m, avec un tronc d'un diamètre de 50 cm.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Arizona</t>
+          <t>Cyprès_de_l'Arizona</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,16 +600,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe cinq variétés, traitées comme des espèces distinctes par certains botanistes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe cinq variétés, traitées comme des espèces distinctes par certains botanistes :
 Cupressus arizonica var. arizonica  - Cyprès de l'Arizona. Sud de l'Arizona, Sud-Ouest du Nouveau-Mexique, au sud de Durango et de Tamaulipas.
 Cupressus arizonica var. glabra (C. glabra) - Cyprès blanc de l'Arizona. Centre de l'Arizona.
 Cupressus arizonica var. montana (C. montana) - Cyprès San Pedro Martir. Forêts de la Sierra de Juárez et de San Pedro Mártir du Nord de la Basse Californie.
 Cupressus arizonica var. nevadensis (C. nevadensis) - Cyprès Piute. Sud de la Californie (Comté de Kern et Comté de Tulare).
-Cupressus arizonica var. stephensonii (C. stephensonii) - Cyprès Cuyamaca. Sud de la Californie (Comté de San Diego). La plus grande partie de ce peuplement a brûlé en octobre 2003 lors d'un immense incendie de forêt, le Cedar Fire, mais s'est bien régénérée par la suite (confirmant l'adaptation de cette espèce aux régions sujettes aux incendies de forêts).
-Utilisation
-Le cyprès de l'Arizona, en particulier sa variété glabra, nettement glauque, est largement cultivé comme arbre d'ornement.
+Cupressus arizonica var. stephensonii (C. stephensonii) - Cyprès Cuyamaca. Sud de la Californie (Comté de San Diego). La plus grande partie de ce peuplement a brûlé en octobre 2003 lors d'un immense incendie de forêt, le Cedar Fire, mais s'est bien régénérée par la suite (confirmant l'adaptation de cette espèce aux régions sujettes aux incendies de forêts).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyprès_de_l'Arizona</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypr%C3%A8s_de_l%27Arizona</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cyprès de l'Arizona, en particulier sa variété glabra, nettement glauque, est largement cultivé comme arbre d'ornement.
 Contrairement au cyprès de Lambert, il s'est révélé hautement résistant au chancre du cyprès, provoqué par un champignon, le Seridium cardinale, et sa croissance est sûre là où la maladie est présente.
 </t>
         </is>
